--- a/tests/data.xlsx
+++ b/tests/data.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\mradang\laravel-excel\tests\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
     <t>编号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -47,6 +47,26 @@
   </si>
   <si>
     <t>王五</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>日期1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>日期2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2024-01-01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2024-02-01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2024-03-01</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -54,6 +74,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <numFmts count="1">
+    <numFmt numFmtId="177" formatCode="m&quot;月&quot;d&quot;日&quot;;@"/>
+  </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -93,8 +116,14 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -377,15 +406,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="4" max="4" width="9.109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.6640625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -395,8 +428,14 @@
       <c r="C1" t="s">
         <v>2</v>
       </c>
+      <c r="D1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -406,8 +445,14 @@
       <c r="C2">
         <v>21</v>
       </c>
+      <c r="D2" s="1">
+        <v>45383</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>8</v>
+      </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -417,8 +462,14 @@
       <c r="C3">
         <v>22</v>
       </c>
+      <c r="D3" s="1">
+        <v>45413</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>9</v>
+      </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -427,10 +478,17 @@
       </c>
       <c r="C4">
         <v>23</v>
+      </c>
+      <c r="D4" s="1">
+        <v>45444</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>10</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>